--- a/features.xlsx
+++ b/features.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anasm\OneDrive\Desktop\SIH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB45080-57C5-4EB4-89CF-CD4FCEB15B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC12F4E8-8EA3-4DEF-ADE6-925494F3A1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>winddir</t>
   </si>
   <si>
-    <t>sealevellpressure</t>
-  </si>
-  <si>
     <t>visibility</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>moonphase</t>
+  </si>
+  <si>
+    <t>sea level pressure</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:M2192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,19 +416,19 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
